--- a/samplesvc-api/src/main/resources/excel/social-sample-blank.xlsx
+++ b/samplesvc-api/src/main/resources/excel/social-sample-blank.xlsx
@@ -129,23 +129,71 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="xmlns:ns1='http://ons.gov.uk/ctp/response/sample/definition'">
-  <Schema ID="Schema2" Namespace="http://ons.gov.uk/ctp/response/sample/definition">
+  <Schema ID="Schema6" Namespace="http://ons.gov.uk/ctp/response/sample/definition">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:simpleType name="phoneNum">
         <xsd:restriction base="xsd:string">
           <xsd:pattern value="[\d ]{1,20}"/>
         </xsd:restriction>
       </xsd:simpleType>
+      <xsd:simpleType name="string_1_1">
+        <xsd:restriction base="xsd:string">
+          <xsd:minLength value="1"/>
+          <xsd:maxLength value="1"/>
+        </xsd:restriction>
+      </xsd:simpleType>
       <xsd:simpleType name="string_1_2">
         <xsd:restriction base="xsd:string">
           <xsd:minLength value="1"/>
           <xsd:maxLength value="2"/>
         </xsd:restriction>
       </xsd:simpleType>
+      <xsd:simpleType name="string_1_4">
+        <xsd:restriction base="xsd:string">
+          <xsd:minLength value="1"/>
+          <xsd:maxLength value="4"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+      <xsd:simpleType name="string_1_5">
+        <xsd:restriction base="xsd:string">
+          <xsd:minLength value="1"/>
+          <xsd:maxLength value="5"/>
+        </xsd:restriction>
+      </xsd:simpleType>
       <xsd:simpleType name="string_1_6">
         <xsd:restriction base="xsd:string">
           <xsd:minLength value="1"/>
           <xsd:maxLength value="6"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+      <xsd:simpleType name="string_1_7">
+        <xsd:restriction base="xsd:string">
+          <xsd:minLength value="1"/>
+          <xsd:maxLength value="7"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+      <xsd:simpleType name="string_1_8">
+        <xsd:restriction base="xsd:string">
+          <xsd:minLength value="1"/>
+          <xsd:maxLength value="8"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+      <xsd:simpleType name="string_1_10">
+        <xsd:restriction base="xsd:string">
+          <xsd:minLength value="1"/>
+          <xsd:maxLength value="10"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+      <xsd:simpleType name="string_1_12">
+        <xsd:restriction base="xsd:string">
+          <xsd:minLength value="1"/>
+          <xsd:maxLength value="12"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+      <xsd:simpleType name="string_1_13">
+        <xsd:restriction base="xsd:string">
+          <xsd:minLength value="1"/>
+          <xsd:maxLength value="13"/>
         </xsd:restriction>
       </xsd:simpleType>
       <xsd:simpleType name="string_1_20">
@@ -172,6 +220,11 @@
           <xsd:maxLength value="60"/>
         </xsd:restriction>
       </xsd:simpleType>
+      <xsd:simpleType name="integer_1_4">
+        <xsd:restriction base="xsd:integer">
+          <xsd:pattern value="[\d]{1,4}"/>
+        </xsd:restriction>
+      </xsd:simpleType>
       <xsd:simpleType name="alphanum_1_9">
         <xsd:restriction base="xsd:string">
           <xsd:pattern value="[\w]{1,9}"/>
@@ -184,13 +237,13 @@
       </xsd:simpleType>
     </xsd:schema>
   </Schema>
-  <Schema ID="Schema3" Namespace="http://ons.gov.uk/ctp/response/sample/definition">
+  <Schema ID="Schema7" Namespace="http://ons.gov.uk/ctp/response/sample/definition">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:include schemaLocation="Schema2"/>
+      <xsd:include schemaLocation="Schema6"/>
       <xsd:complexType name="SampleUnitBase">
         <xsd:sequence>
-          <xsd:element name="respondentRef" type="xsd:string" minOccurs="1" maxOccurs="1"/>
-          <xsd:element name="respondentType" minOccurs="1" maxOccurs="1">
+          <xsd:element name="sampleUnitRef" type="xsd:string" minOccurs="1" maxOccurs="1"/>
+          <xsd:element name="sampleUnitType" minOccurs="1" maxOccurs="1">
             <xsd:simpleType>
               <xsd:restriction base="xsd:string">
                 <xsd:enumeration value="H"/>
@@ -230,9 +283,9 @@
       </xsd:complexType>
     </xsd:schema>
   </Schema>
-  <Schema ID="Schema4" Namespace="http://ons.gov.uk/ctp/response/sample/definition">
+  <Schema ID="Schema8" Namespace="http://ons.gov.uk/ctp/response/sample/definition">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:include schemaLocation="Schema2"/>
+      <xsd:include schemaLocation="Schema6"/>
       <xsd:complexType name="SurveyBase">
         <xsd:sequence>
           <xsd:element name="surveyRef" type="xsd:string" minOccurs="1" maxOccurs="1"/>
@@ -243,11 +296,11 @@
       </xsd:complexType>
     </xsd:schema>
   </Schema>
-  <Schema ID="Schema1" SchemaRef="Schema2 Schema3 Schema4" Namespace="http://ons.gov.uk/ctp/response/sample/definition">
+  <Schema ID="Schema5" SchemaRef="Schema6 Schema7 Schema8" Namespace="http://ons.gov.uk/ctp/response/sample/definition">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://ons.gov.uk/ctp/response/sample/definition" targetNamespace="http://ons.gov.uk/ctp/response/sample/definition">
-      <xsd:include schemaLocation="Schema2"/>
-      <xsd:include schemaLocation="Schema3"/>
-      <xsd:include schemaLocation="Schema4"/>
+      <xsd:include schemaLocation="Schema6"/>
+      <xsd:include schemaLocation="Schema7"/>
+      <xsd:include schemaLocation="Schema8"/>
       <xsd:element name="socialSurveySample" type="SocialSurveySample"/>
       <xsd:complexType name="SocialSurveySample">
         <xsd:complexContent>
@@ -274,7 +327,7 @@
       </xsd:complexType>
     </xsd:schema>
   </Schema>
-  <Map ID="1" Name="socialSurveySample_Map" RootElement="socialSurveySample" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="2" Name="socialSurveySample_Map" RootElement="socialSurveySample" SchemaID="Schema5" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
 </MapInfo>
 </file>
 
@@ -282,47 +335,47 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:N2" tableType="xml" insertRow="1" totalsRowShown="0">
   <autoFilter ref="A1:N2"/>
   <tableColumns count="14">
-    <tableColumn id="1" uniqueName="respondentRef" name="respondentRef">
-      <xmlColumnPr mapId="1" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/respondentRef" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="2" uniqueName="respondentType" name="respondentType">
-      <xmlColumnPr mapId="1" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/respondentType" xmlDataType="string"/>
+    <tableColumn id="1" uniqueName="sampleUnitRef" name="respondentRef">
+      <xmlColumnPr mapId="2" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/sampleUnitRef" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="sampleUnitType" name="respondentType">
+      <xmlColumnPr mapId="2" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/sampleUnitType" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="treatmentRef" name="treatmentRef">
-      <xmlColumnPr mapId="1" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/treatmentRef" xmlDataType="string"/>
+      <xmlColumnPr mapId="2" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/treatmentRef" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="line1" name="line1">
-      <xmlColumnPr mapId="1" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/line1" xmlDataType="string"/>
+      <xmlColumnPr mapId="2" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/line1" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="line2" name="line2">
-      <xmlColumnPr mapId="1" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/line2" xmlDataType="string"/>
+      <xmlColumnPr mapId="2" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/line2" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="line3" name="line3">
-      <xmlColumnPr mapId="1" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/line3" xmlDataType="string"/>
+      <xmlColumnPr mapId="2" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/line3" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="line4" name="line4">
-      <xmlColumnPr mapId="1" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/line4" xmlDataType="string"/>
+      <xmlColumnPr mapId="2" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/line4" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="8" uniqueName="line5" name="line5">
-      <xmlColumnPr mapId="1" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/line5" xmlDataType="string"/>
+      <xmlColumnPr mapId="2" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/line5" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="9" uniqueName="postcode" name="postcode">
-      <xmlColumnPr mapId="1" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/postcode" xmlDataType="string"/>
+      <xmlColumnPr mapId="2" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/postcode" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="10" uniqueName="title" name="title">
-      <xmlColumnPr mapId="1" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/title" xmlDataType="string"/>
+      <xmlColumnPr mapId="2" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/title" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="11" uniqueName="forename" name="forename">
-      <xmlColumnPr mapId="1" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/forename" xmlDataType="string"/>
+      <xmlColumnPr mapId="2" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/forename" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="12" uniqueName="surname" name="surname">
-      <xmlColumnPr mapId="1" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/surname" xmlDataType="string"/>
+      <xmlColumnPr mapId="2" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/surname" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="13" uniqueName="phoneNumber" name="phoneNumber">
-      <xmlColumnPr mapId="1" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/phoneNumber" xmlDataType="string"/>
+      <xmlColumnPr mapId="2" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/phoneNumber" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="14" uniqueName="emailAddress" name="emailAddress">
-      <xmlColumnPr mapId="1" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/emailAddress" xmlDataType="string"/>
+      <xmlColumnPr mapId="2" xpath="/ns1:socialSurveySample/sampleUnits/socialSampleUnit/emailAddress" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -333,22 +386,22 @@
 <singleXmlCells xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <singleXmlCell id="1" r="B2" connectionId="0">
     <xmlCellPr id="1" uniqueName="surveyRef">
-      <xmlPr mapId="1" xpath="/ns1:socialSurveySample/surveyRef" xmlDataType="string"/>
+      <xmlPr mapId="2" xpath="/ns1:socialSurveySample/surveyRef" xmlDataType="string"/>
     </xmlCellPr>
   </singleXmlCell>
   <singleXmlCell id="2" r="B3" connectionId="0">
     <xmlCellPr id="1" uniqueName="collectionExerciseRef">
-      <xmlPr mapId="1" xpath="/ns1:socialSurveySample/collectionExerciseRef" xmlDataType="string"/>
+      <xmlPr mapId="2" xpath="/ns1:socialSurveySample/collectionExerciseRef" xmlDataType="string"/>
     </xmlCellPr>
   </singleXmlCell>
   <singleXmlCell id="3" r="B4" connectionId="0">
     <xmlCellPr id="1" uniqueName="effectiveStartDateTime">
-      <xmlPr mapId="1" xpath="/ns1:socialSurveySample/effectiveStartDateTime" xmlDataType="dateTime"/>
+      <xmlPr mapId="2" xpath="/ns1:socialSurveySample/effectiveStartDateTime" xmlDataType="dateTime"/>
     </xmlCellPr>
   </singleXmlCell>
   <singleXmlCell id="4" r="B5" connectionId="0">
     <xmlCellPr id="1" uniqueName="effectiveEndDateTime">
-      <xmlPr mapId="1" xpath="/ns1:socialSurveySample/effectiveEndDateTime" xmlDataType="dateTime"/>
+      <xmlPr mapId="2" xpath="/ns1:socialSurveySample/effectiveEndDateTime" xmlDataType="dateTime"/>
     </xmlCellPr>
   </singleXmlCell>
 </singleXmlCells>
@@ -684,7 +737,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
